--- a/public/assets/levels/template.xlsx
+++ b/public/assets/levels/template.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32460" windowHeight="15060"/>
+    <workbookView windowWidth="32460" windowHeight="15060" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="九年级上" sheetId="2" r:id="rId1"/>
-    <sheet name="九年级下" sheetId="1" r:id="rId2"/>
+    <sheet name="九上" sheetId="2" r:id="rId1"/>
+    <sheet name="九下" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5123,7 +5123,7 @@
   <sheetPr/>
   <dimension ref="A1:D346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
@@ -9082,7 +9082,7 @@
   <sheetPr/>
   <dimension ref="A1:C160"/>
   <sheetViews>
-    <sheetView zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
